--- a/2019/draft_results.xlsx
+++ b/2019/draft_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="159">
   <si>
     <t>Round</t>
   </si>
@@ -25,6 +25,12 @@
     <t>Position</t>
   </si>
   <si>
+    <t>Bye</t>
+  </si>
+  <si>
+    <t>ESPN Projection</t>
+  </si>
+  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -37,15 +43,42 @@
     <t>2</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>9</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>11</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
     <t>15</t>
   </si>
   <si>
@@ -85,31 +118,352 @@
     <t>Tyreek Hill</t>
   </si>
   <si>
+    <t>Todd Gurley II</t>
+  </si>
+  <si>
+    <t>Travis Kelce</t>
+  </si>
+  <si>
     <t>Ezekiel Elliott</t>
   </si>
   <si>
-    <t>Melvin Gordon</t>
-  </si>
-  <si>
-    <t>Kareem Hunt</t>
-  </si>
-  <si>
-    <t>Adam Thielen</t>
-  </si>
-  <si>
-    <t>Harrison Butker</t>
-  </si>
-  <si>
-    <t>Alvin Kamara</t>
+    <t>Mike Evans</t>
+  </si>
+  <si>
+    <t>Joe Mixon</t>
+  </si>
+  <si>
+    <t>Dalvin Cook</t>
+  </si>
+  <si>
+    <t>Antonio Brown</t>
+  </si>
+  <si>
+    <t>Keenan Allen</t>
+  </si>
+  <si>
+    <t>Nick Chubb</t>
+  </si>
+  <si>
+    <t>Kerryon Johnson</t>
+  </si>
+  <si>
+    <t>Leonard Fournette</t>
+  </si>
+  <si>
+    <t>Devonta Freeman</t>
+  </si>
+  <si>
+    <t>Amari Cooper</t>
+  </si>
+  <si>
+    <t>Brandin Cooks</t>
+  </si>
+  <si>
+    <t>George Kittle</t>
+  </si>
+  <si>
+    <t>Zach Ertz</t>
+  </si>
+  <si>
+    <t>Derrick Henry</t>
+  </si>
+  <si>
+    <t>Chris Carson</t>
+  </si>
+  <si>
+    <t>Josh Jacobs</t>
+  </si>
+  <si>
+    <t>Aaron Jones</t>
+  </si>
+  <si>
+    <t>Mark Ingram II</t>
+  </si>
+  <si>
+    <t>Julian Edelman</t>
+  </si>
+  <si>
+    <t>Stefon Diggs</t>
+  </si>
+  <si>
+    <t>Robert Woods</t>
+  </si>
+  <si>
+    <t>Kenny Golladay</t>
+  </si>
+  <si>
+    <t>Chris Godwin</t>
+  </si>
+  <si>
+    <t>T.Y. Hilton</t>
+  </si>
+  <si>
+    <t>Patrick Mahomes</t>
+  </si>
+  <si>
+    <t>Sony Michel</t>
+  </si>
+  <si>
+    <t>Marlon Mack</t>
+  </si>
+  <si>
+    <t>Alshon Jeffery</t>
+  </si>
+  <si>
+    <t>Cooper Kupp</t>
+  </si>
+  <si>
+    <t>Tyler Lockett</t>
+  </si>
+  <si>
+    <t>Mike Williams</t>
+  </si>
+  <si>
+    <t>DJ Moore</t>
+  </si>
+  <si>
+    <t>Allen Robinson</t>
+  </si>
+  <si>
+    <t>Calvin Ridley</t>
+  </si>
+  <si>
+    <t>Robby Anderson</t>
+  </si>
+  <si>
+    <t>Josh Gordon</t>
+  </si>
+  <si>
+    <t>Tyler Boyd</t>
+  </si>
+  <si>
+    <t>Damien Williams</t>
+  </si>
+  <si>
+    <t>James White</t>
+  </si>
+  <si>
+    <t>David Montgomery</t>
+  </si>
+  <si>
+    <t>Phillip Lindsay</t>
+  </si>
+  <si>
+    <t>Kenyan Drake</t>
+  </si>
+  <si>
+    <t>Derrius Guice</t>
+  </si>
+  <si>
+    <t>Duke Johnson Jr.</t>
+  </si>
+  <si>
+    <t>Tevin Coleman</t>
+  </si>
+  <si>
+    <t>Evan Engram</t>
+  </si>
+  <si>
+    <t>O.J. Howard</t>
+  </si>
+  <si>
+    <t>Hunter Henry</t>
+  </si>
+  <si>
+    <t>Jared Cook</t>
+  </si>
+  <si>
+    <t>Deshaun Watson</t>
+  </si>
+  <si>
+    <t>Matt Ryan</t>
+  </si>
+  <si>
+    <t>Aaron Rodgers</t>
+  </si>
+  <si>
+    <t>Sammy Watkins</t>
+  </si>
+  <si>
+    <t>A.J. Green</t>
+  </si>
+  <si>
+    <t>Sterling Shepard</t>
+  </si>
+  <si>
+    <t>Jarvis Landry</t>
+  </si>
+  <si>
+    <t>Marvin Jones Jr.</t>
+  </si>
+  <si>
+    <t>Dede Westbrook</t>
+  </si>
+  <si>
+    <t>Will Fuller V</t>
+  </si>
+  <si>
+    <t>Curtis Samuel</t>
+  </si>
+  <si>
+    <t>Miles Sanders</t>
+  </si>
+  <si>
+    <t>Tarik Cohen</t>
+  </si>
+  <si>
+    <t>Jordan Howard</t>
+  </si>
+  <si>
+    <t>Austin Ekeler</t>
+  </si>
+  <si>
+    <t>Royce Freeman</t>
+  </si>
+  <si>
+    <t>Rashaad Penny</t>
+  </si>
+  <si>
+    <t>Latavius Murray</t>
+  </si>
+  <si>
+    <t>Baker Mayfield</t>
+  </si>
+  <si>
+    <t>Carson Wentz</t>
+  </si>
+  <si>
+    <t>Cam Newton</t>
+  </si>
+  <si>
+    <t>Dak Prescott</t>
+  </si>
+  <si>
+    <t>Christian Kirk</t>
+  </si>
+  <si>
+    <t>Courtland Sutton</t>
+  </si>
+  <si>
+    <t>Michael Gallup</t>
+  </si>
+  <si>
+    <t>Corey Davis</t>
+  </si>
+  <si>
+    <t>Larry Fitzgerald</t>
+  </si>
+  <si>
+    <t>Dante Pettis</t>
+  </si>
+  <si>
+    <t>Jamison Crowder</t>
+  </si>
+  <si>
+    <t>James Washington</t>
+  </si>
+  <si>
+    <t>Peyton Barber</t>
+  </si>
+  <si>
+    <t>Ronald Jones</t>
+  </si>
+  <si>
+    <t>Nyheim Hines</t>
+  </si>
+  <si>
+    <t>Darrell Henderson</t>
+  </si>
+  <si>
+    <t>Matt Breida</t>
+  </si>
+  <si>
+    <t>LeSean McCoy</t>
+  </si>
+  <si>
+    <t>Darwin Thompson</t>
+  </si>
+  <si>
+    <t>Emmanuel Sanders</t>
+  </si>
+  <si>
+    <t>Stephen Gostkowski</t>
+  </si>
+  <si>
+    <t>Geronimo Allison</t>
+  </si>
+  <si>
+    <t>Marquez Valdes-Scantling</t>
+  </si>
+  <si>
+    <t>Keke Coutee</t>
+  </si>
+  <si>
+    <t>David Njoku</t>
+  </si>
+  <si>
+    <t>Vance McDonald</t>
+  </si>
+  <si>
+    <t>Delanie Walker</t>
+  </si>
+  <si>
+    <t>Austin Hooper</t>
+  </si>
+  <si>
+    <t>Drew Brees</t>
+  </si>
+  <si>
+    <t>Ben Roethlisberger</t>
+  </si>
+  <si>
+    <t>Russell Wilson</t>
+  </si>
+  <si>
+    <t>Kyler Murray</t>
+  </si>
+  <si>
+    <t>Jared Goff</t>
+  </si>
+  <si>
+    <t>Tom Brady</t>
+  </si>
+  <si>
+    <t>Donte Moncrief</t>
   </si>
   <si>
     <t>James Conner</t>
   </si>
   <si>
+    <t>DeSean Jackson</t>
+  </si>
+  <si>
+    <t>Devin Funchess</t>
+  </si>
+  <si>
+    <t>Anthony Miller</t>
+  </si>
+  <si>
+    <t>Tyrell Williams</t>
+  </si>
+  <si>
+    <t>Lamar Jackson</t>
+  </si>
+  <si>
+    <t>Mitchell Trubisky</t>
+  </si>
+  <si>
     <t>RB</t>
   </si>
   <si>
     <t>WR</t>
+  </si>
+  <si>
+    <t>TE</t>
+  </si>
+  <si>
+    <t>QB</t>
   </si>
   <si>
     <t>K</t>
@@ -494,15 +848,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:G124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -516,311 +870,2840 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>146</v>
+      </c>
+      <c r="E2">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>276.1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>146</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>246.2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>147</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>193.8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>147</v>
+      </c>
+      <c r="E5">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>185.4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>146</v>
+      </c>
+      <c r="E6">
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>240.3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>146</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>218.7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>147</v>
+      </c>
+      <c r="E8">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>180.2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>147</v>
+      </c>
+      <c r="E9">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>191.6</v>
+      </c>
+      <c r="G9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>147</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>183</v>
+      </c>
+      <c r="G10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>147</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <v>177.4</v>
+      </c>
+      <c r="G11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>147</v>
+      </c>
+      <c r="E12">
+        <v>12</v>
+      </c>
+      <c r="F12">
+        <v>203</v>
+      </c>
+      <c r="G12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>242.4</v>
+      </c>
+      <c r="G13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>148</v>
+      </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <v>183</v>
+      </c>
+      <c r="G14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
         <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1">
-        <v>39</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1">
-        <v>68</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
       <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <v>270.2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" t="s">
+        <v>147</v>
+      </c>
+      <c r="E16">
+        <v>7</v>
+      </c>
+      <c r="F16">
+        <v>176.4</v>
+      </c>
+      <c r="G16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" t="s">
+        <v>146</v>
+      </c>
+      <c r="E17">
+        <v>9</v>
+      </c>
+      <c r="F17">
+        <v>215.8</v>
+      </c>
+      <c r="G17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" t="s">
+        <v>146</v>
+      </c>
+      <c r="E18">
+        <v>12</v>
+      </c>
+      <c r="F18">
+        <v>206.1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
+        <v>147</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
+      <c r="F19">
+        <v>171.6</v>
+      </c>
+      <c r="G19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>147</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20">
+        <v>166.1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" t="s">
+        <v>146</v>
+      </c>
+      <c r="E21">
+        <v>7</v>
+      </c>
+      <c r="F21">
+        <v>210.9</v>
+      </c>
+      <c r="G21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <v>182.8</v>
+      </c>
+      <c r="G22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>188.8</v>
+      </c>
+      <c r="G23" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" t="s">
+        <v>146</v>
+      </c>
+      <c r="E24">
+        <v>9</v>
+      </c>
+      <c r="F24">
+        <v>192.9</v>
+      </c>
+      <c r="G24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" t="s">
+        <v>147</v>
+      </c>
+      <c r="E25">
+        <v>8</v>
+      </c>
+      <c r="F25">
+        <v>159.5</v>
+      </c>
+      <c r="G25" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="D15" t="s">
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" t="s">
+        <v>147</v>
+      </c>
+      <c r="E26">
+        <v>9</v>
+      </c>
+      <c r="F26">
+        <v>154.9</v>
+      </c>
+      <c r="G26" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" t="s">
+        <v>148</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <v>151.8</v>
+      </c>
+      <c r="G27" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" t="s">
+        <v>148</v>
+      </c>
+      <c r="E28">
+        <v>10</v>
+      </c>
+      <c r="F28">
+        <v>133.9</v>
+      </c>
+      <c r="G28" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" t="s">
+        <v>146</v>
+      </c>
+      <c r="E29">
+        <v>11</v>
+      </c>
+      <c r="F29">
+        <v>217.6</v>
+      </c>
+      <c r="G29" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" t="s">
+        <v>146</v>
+      </c>
+      <c r="E30">
+        <v>11</v>
+      </c>
+      <c r="F30">
+        <v>193.1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="E15" t="s">
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" t="s">
+        <v>146</v>
+      </c>
+      <c r="E31">
+        <v>6</v>
+      </c>
+      <c r="F31">
+        <v>188.9</v>
+      </c>
+      <c r="G31" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" t="s">
+        <v>146</v>
+      </c>
+      <c r="E32">
+        <v>11</v>
+      </c>
+      <c r="F32">
+        <v>180</v>
+      </c>
+      <c r="G32" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" t="s">
+        <v>146</v>
+      </c>
+      <c r="E33">
+        <v>8</v>
+      </c>
+      <c r="F33">
+        <v>178.4</v>
+      </c>
+      <c r="G33" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" t="s">
+        <v>147</v>
+      </c>
+      <c r="E34">
+        <v>10</v>
+      </c>
+      <c r="F34">
+        <v>163.2</v>
+      </c>
+      <c r="G34" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" t="s">
+        <v>147</v>
+      </c>
+      <c r="E35">
+        <v>12</v>
+      </c>
+      <c r="F35">
+        <v>138.3</v>
+      </c>
+      <c r="G35" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" t="s">
+        <v>147</v>
+      </c>
+      <c r="E36">
+        <v>9</v>
+      </c>
+      <c r="F36">
+        <v>140</v>
+      </c>
+      <c r="G36" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" t="s">
+        <v>147</v>
+      </c>
+      <c r="E37">
+        <v>5</v>
+      </c>
+      <c r="F37">
+        <v>139</v>
+      </c>
+      <c r="G37" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1">
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" t="s">
+        <v>147</v>
+      </c>
+      <c r="E38">
+        <v>7</v>
+      </c>
+      <c r="F38">
+        <v>134</v>
+      </c>
+      <c r="G38" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" t="s">
+        <v>147</v>
+      </c>
+      <c r="E39">
+        <v>6</v>
+      </c>
+      <c r="F39">
+        <v>141</v>
+      </c>
+      <c r="G39" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" t="s">
+        <v>149</v>
+      </c>
+      <c r="E40">
+        <v>12</v>
+      </c>
+      <c r="F40">
+        <v>339.9</v>
+      </c>
+      <c r="G40" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" t="s">
+        <v>146</v>
+      </c>
+      <c r="E41">
+        <v>10</v>
+      </c>
+      <c r="F41">
+        <v>186.1</v>
+      </c>
+      <c r="G41" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" t="s">
+        <v>146</v>
+      </c>
+      <c r="E42">
+        <v>6</v>
+      </c>
+      <c r="F42">
+        <v>166.7</v>
+      </c>
+      <c r="G42" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" t="s">
+        <v>147</v>
+      </c>
+      <c r="E43">
+        <v>10</v>
+      </c>
+      <c r="F43">
+        <v>135.7</v>
+      </c>
+      <c r="G43" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" t="s">
+        <v>147</v>
+      </c>
+      <c r="E44">
+        <v>9</v>
+      </c>
+      <c r="F44">
+        <v>133</v>
+      </c>
+      <c r="G44" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" t="s">
+        <v>66</v>
+      </c>
+      <c r="D45" t="s">
+        <v>147</v>
+      </c>
+      <c r="E45">
+        <v>11</v>
+      </c>
+      <c r="F45">
+        <v>140.5</v>
+      </c>
+      <c r="G45" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" t="s">
+        <v>147</v>
+      </c>
+      <c r="E46">
+        <v>12</v>
+      </c>
+      <c r="F46">
+        <v>144.2</v>
+      </c>
+      <c r="G46" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" t="s">
+        <v>147</v>
+      </c>
+      <c r="E47">
+        <v>7</v>
+      </c>
+      <c r="F47">
+        <v>135.4</v>
+      </c>
+      <c r="G47" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" t="s">
+        <v>147</v>
+      </c>
+      <c r="E48">
+        <v>6</v>
+      </c>
+      <c r="F48">
+        <v>129.8</v>
+      </c>
+      <c r="G48" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49" t="s">
+        <v>147</v>
+      </c>
+      <c r="E49">
+        <v>9</v>
+      </c>
+      <c r="F49">
+        <v>131.9</v>
+      </c>
+      <c r="G49" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" t="s">
+        <v>147</v>
+      </c>
+      <c r="E50">
+        <v>4</v>
+      </c>
+      <c r="F50">
+        <v>133.3</v>
+      </c>
+      <c r="G50" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" t="s">
+        <v>72</v>
+      </c>
+      <c r="D51" t="s">
+        <v>147</v>
+      </c>
+      <c r="E51">
+        <v>10</v>
+      </c>
+      <c r="F51">
+        <v>130.6</v>
+      </c>
+      <c r="G51" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52" t="s">
+        <v>147</v>
+      </c>
+      <c r="E52">
+        <v>9</v>
+      </c>
+      <c r="F52">
+        <v>126.9</v>
+      </c>
+      <c r="G52" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" t="s">
+        <v>74</v>
+      </c>
+      <c r="D53" t="s">
+        <v>146</v>
+      </c>
+      <c r="E53">
+        <v>12</v>
+      </c>
+      <c r="F53">
+        <v>172.6</v>
+      </c>
+      <c r="G53" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" t="s">
+        <v>75</v>
+      </c>
+      <c r="D54" t="s">
+        <v>146</v>
+      </c>
+      <c r="E54">
+        <v>10</v>
+      </c>
+      <c r="F54">
+        <v>141.1</v>
+      </c>
+      <c r="G54" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
+        <v>55</v>
+      </c>
+      <c r="B55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" t="s">
+        <v>76</v>
+      </c>
+      <c r="D55" t="s">
+        <v>146</v>
+      </c>
+      <c r="E55">
+        <v>6</v>
+      </c>
+      <c r="F55">
+        <v>163.5</v>
+      </c>
+      <c r="G55" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
+        <v>56</v>
+      </c>
+      <c r="B56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56" t="s">
+        <v>146</v>
+      </c>
+      <c r="E56">
+        <v>10</v>
+      </c>
+      <c r="F56">
+        <v>139.9</v>
+      </c>
+      <c r="G56" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
+        <v>57</v>
+      </c>
+      <c r="B57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" t="s">
+        <v>78</v>
+      </c>
+      <c r="D57" t="s">
+        <v>146</v>
+      </c>
+      <c r="E57">
+        <v>5</v>
+      </c>
+      <c r="F57">
+        <v>150.5</v>
+      </c>
+      <c r="G57" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
+        <v>58</v>
+      </c>
+      <c r="B58" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" t="s">
+        <v>79</v>
+      </c>
+      <c r="D58" t="s">
+        <v>146</v>
+      </c>
+      <c r="E58">
+        <v>10</v>
+      </c>
+      <c r="F58">
+        <v>150</v>
+      </c>
+      <c r="G58" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
+        <v>59</v>
+      </c>
+      <c r="B59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" t="s">
         <v>80</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D59" t="s">
+        <v>146</v>
+      </c>
+      <c r="E59">
+        <v>10</v>
+      </c>
+      <c r="F59">
+        <v>140</v>
+      </c>
+      <c r="G59" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
+        <v>60</v>
+      </c>
+      <c r="B60" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" t="s">
+        <v>81</v>
+      </c>
+      <c r="D60" t="s">
+        <v>146</v>
+      </c>
+      <c r="E60">
+        <v>4</v>
+      </c>
+      <c r="F60">
+        <v>134.6</v>
+      </c>
+      <c r="G60" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
+        <v>61</v>
+      </c>
+      <c r="B61" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" t="s">
+        <v>82</v>
+      </c>
+      <c r="D61" t="s">
+        <v>148</v>
+      </c>
+      <c r="E61">
+        <v>11</v>
+      </c>
+      <c r="F61">
+        <v>111.5</v>
+      </c>
+      <c r="G61" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
+        <v>62</v>
+      </c>
+      <c r="B62" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" t="s">
+        <v>83</v>
+      </c>
+      <c r="D62" t="s">
+        <v>148</v>
+      </c>
+      <c r="E62">
+        <v>7</v>
+      </c>
+      <c r="F62">
+        <v>110.2</v>
+      </c>
+      <c r="G62" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
+        <v>63</v>
+      </c>
+      <c r="B63" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" t="s">
+        <v>84</v>
+      </c>
+      <c r="D63" t="s">
+        <v>148</v>
+      </c>
+      <c r="E63">
+        <v>12</v>
+      </c>
+      <c r="F63">
+        <v>109.9</v>
+      </c>
+      <c r="G63" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
+        <v>64</v>
+      </c>
+      <c r="B64" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" t="s">
+        <v>85</v>
+      </c>
+      <c r="D64" t="s">
+        <v>148</v>
+      </c>
+      <c r="E64">
         <v>9</v>
       </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1">
+      <c r="F64">
+        <v>111.3</v>
+      </c>
+      <c r="G64" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1">
+        <v>65</v>
+      </c>
+      <c r="B65" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" t="s">
+        <v>86</v>
+      </c>
+      <c r="D65" t="s">
+        <v>149</v>
+      </c>
+      <c r="E65">
+        <v>10</v>
+      </c>
+      <c r="F65">
+        <v>320.7</v>
+      </c>
+      <c r="G65" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1">
+        <v>66</v>
+      </c>
+      <c r="B66" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" t="s">
+        <v>87</v>
+      </c>
+      <c r="D66" t="s">
+        <v>149</v>
+      </c>
+      <c r="E66">
+        <v>9</v>
+      </c>
+      <c r="F66">
+        <v>306</v>
+      </c>
+      <c r="G66" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1">
+        <v>67</v>
+      </c>
+      <c r="B67" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" t="s">
+        <v>88</v>
+      </c>
+      <c r="D67" t="s">
+        <v>149</v>
+      </c>
+      <c r="E67">
+        <v>11</v>
+      </c>
+      <c r="F67">
+        <v>299.7</v>
+      </c>
+      <c r="G67" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1">
+        <v>68</v>
+      </c>
+      <c r="B68" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" t="s">
+        <v>89</v>
+      </c>
+      <c r="D68" t="s">
+        <v>147</v>
+      </c>
+      <c r="E68">
+        <v>12</v>
+      </c>
+      <c r="F68">
+        <v>128.2</v>
+      </c>
+      <c r="G68" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1">
+        <v>70</v>
+      </c>
+      <c r="B69" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" t="s">
+        <v>90</v>
+      </c>
+      <c r="D69" t="s">
+        <v>147</v>
+      </c>
+      <c r="E69">
+        <v>9</v>
+      </c>
+      <c r="F69">
+        <v>137.3</v>
+      </c>
+      <c r="G69" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1">
+        <v>71</v>
+      </c>
+      <c r="B70" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" t="s">
+        <v>91</v>
+      </c>
+      <c r="D70" t="s">
+        <v>147</v>
+      </c>
+      <c r="E70">
+        <v>11</v>
+      </c>
+      <c r="F70">
+        <v>132</v>
+      </c>
+      <c r="G70" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1">
+        <v>72</v>
+      </c>
+      <c r="B71" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" t="s">
+        <v>92</v>
+      </c>
+      <c r="D71" t="s">
+        <v>147</v>
+      </c>
+      <c r="E71">
+        <v>7</v>
+      </c>
+      <c r="F71">
+        <v>120.5</v>
+      </c>
+      <c r="G71" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1">
+        <v>73</v>
+      </c>
+      <c r="B72" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" t="s">
+        <v>93</v>
+      </c>
+      <c r="D72" t="s">
+        <v>147</v>
+      </c>
+      <c r="E72">
+        <v>5</v>
+      </c>
+      <c r="F72">
+        <v>124.2</v>
+      </c>
+      <c r="G72" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="1">
+        <v>74</v>
+      </c>
+      <c r="B73" t="s">
+        <v>16</v>
+      </c>
+      <c r="C73" t="s">
+        <v>94</v>
+      </c>
+      <c r="D73" t="s">
+        <v>147</v>
+      </c>
+      <c r="E73">
+        <v>10</v>
+      </c>
+      <c r="F73">
+        <v>117.3</v>
+      </c>
+      <c r="G73" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="1">
+        <v>75</v>
+      </c>
+      <c r="B74" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" t="s">
+        <v>95</v>
+      </c>
+      <c r="D74" t="s">
+        <v>147</v>
+      </c>
+      <c r="E74">
+        <v>10</v>
+      </c>
+      <c r="F74">
+        <v>102.9</v>
+      </c>
+      <c r="G74" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="1">
+        <v>76</v>
+      </c>
+      <c r="B75" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" t="s">
+        <v>96</v>
+      </c>
+      <c r="D75" t="s">
+        <v>147</v>
+      </c>
+      <c r="E75">
+        <v>7</v>
+      </c>
+      <c r="F75">
+        <v>112</v>
+      </c>
+      <c r="G75" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="1">
+        <v>77</v>
+      </c>
+      <c r="B76" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" t="s">
+        <v>97</v>
+      </c>
+      <c r="D76" t="s">
+        <v>146</v>
+      </c>
+      <c r="E76">
+        <v>10</v>
+      </c>
+      <c r="F76">
+        <v>138.7</v>
+      </c>
+      <c r="G76" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="1">
+        <v>78</v>
+      </c>
+      <c r="B77" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" t="s">
+        <v>98</v>
+      </c>
+      <c r="D77" t="s">
+        <v>146</v>
+      </c>
+      <c r="E77">
+        <v>6</v>
+      </c>
+      <c r="F77">
+        <v>122.2</v>
+      </c>
+      <c r="G77" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="1">
+        <v>79</v>
+      </c>
+      <c r="B78" t="s">
+        <v>16</v>
+      </c>
+      <c r="C78" t="s">
+        <v>99</v>
+      </c>
+      <c r="D78" t="s">
+        <v>146</v>
+      </c>
+      <c r="E78">
+        <v>10</v>
+      </c>
+      <c r="F78">
+        <v>102.8</v>
+      </c>
+      <c r="G78" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="1">
+        <v>80</v>
+      </c>
+      <c r="B79" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" t="s">
+        <v>100</v>
+      </c>
+      <c r="D79" t="s">
+        <v>146</v>
+      </c>
+      <c r="E79">
+        <v>12</v>
+      </c>
+      <c r="F79">
+        <v>125.5</v>
+      </c>
+      <c r="G79" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="1">
+        <v>82</v>
+      </c>
+      <c r="B80" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80" t="s">
+        <v>101</v>
+      </c>
+      <c r="D80" t="s">
+        <v>146</v>
+      </c>
+      <c r="E80">
+        <v>10</v>
+      </c>
+      <c r="F80">
+        <v>116.1</v>
+      </c>
+      <c r="G80" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="1">
+        <v>83</v>
+      </c>
+      <c r="B81" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" t="s">
+        <v>102</v>
+      </c>
+      <c r="D81" t="s">
+        <v>146</v>
+      </c>
+      <c r="E81">
+        <v>11</v>
+      </c>
+      <c r="F81">
+        <v>110</v>
+      </c>
+      <c r="G81" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="1">
+        <v>84</v>
+      </c>
+      <c r="B82" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82" t="s">
+        <v>103</v>
+      </c>
+      <c r="D82" t="s">
+        <v>146</v>
+      </c>
+      <c r="E82">
+        <v>9</v>
+      </c>
+      <c r="F82">
+        <v>107.7</v>
+      </c>
+      <c r="G82" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="1">
+        <v>85</v>
+      </c>
+      <c r="B83" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" t="s">
+        <v>104</v>
+      </c>
+      <c r="D83" t="s">
+        <v>149</v>
+      </c>
+      <c r="E83">
+        <v>7</v>
+      </c>
+      <c r="F83">
+        <v>282.2</v>
+      </c>
+      <c r="G83" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="1">
+        <v>86</v>
+      </c>
+      <c r="B84" t="s">
+        <v>17</v>
+      </c>
+      <c r="C84" t="s">
+        <v>105</v>
+      </c>
+      <c r="D84" t="s">
+        <v>149</v>
+      </c>
+      <c r="E84">
+        <v>10</v>
+      </c>
+      <c r="F84">
+        <v>295.4</v>
+      </c>
+      <c r="G84" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="1">
+        <v>87</v>
+      </c>
+      <c r="B85" t="s">
+        <v>17</v>
+      </c>
+      <c r="C85" t="s">
+        <v>106</v>
+      </c>
+      <c r="D85" t="s">
+        <v>149</v>
+      </c>
+      <c r="E85">
+        <v>7</v>
+      </c>
+      <c r="F85">
+        <v>302.1</v>
+      </c>
+      <c r="G85" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="1">
+        <v>88</v>
+      </c>
+      <c r="B86" t="s">
+        <v>17</v>
+      </c>
+      <c r="C86" t="s">
+        <v>107</v>
+      </c>
+      <c r="D86" t="s">
+        <v>149</v>
+      </c>
+      <c r="E86">
+        <v>8</v>
+      </c>
+      <c r="F86">
+        <v>298</v>
+      </c>
+      <c r="G86" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="1">
+        <v>89</v>
+      </c>
+      <c r="B87" t="s">
+        <v>18</v>
+      </c>
+      <c r="C87" t="s">
+        <v>108</v>
+      </c>
+      <c r="D87" t="s">
+        <v>147</v>
+      </c>
+      <c r="E87">
+        <v>12</v>
+      </c>
+      <c r="F87">
+        <v>109.2</v>
+      </c>
+      <c r="G87" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="1">
+        <v>90</v>
+      </c>
+      <c r="B88" t="s">
+        <v>18</v>
+      </c>
+      <c r="C88" t="s">
+        <v>109</v>
+      </c>
+      <c r="D88" t="s">
+        <v>147</v>
+      </c>
+      <c r="E88">
+        <v>10</v>
+      </c>
+      <c r="F88">
+        <v>102.4</v>
+      </c>
+      <c r="G88" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="1">
+        <v>91</v>
+      </c>
+      <c r="B89" t="s">
+        <v>18</v>
+      </c>
+      <c r="C89" t="s">
+        <v>110</v>
+      </c>
+      <c r="D89" t="s">
+        <v>147</v>
+      </c>
+      <c r="E89">
+        <v>8</v>
+      </c>
+      <c r="F89">
+        <v>105.5</v>
+      </c>
+      <c r="G89" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="1">
+        <v>92</v>
+      </c>
+      <c r="B90" t="s">
+        <v>18</v>
+      </c>
+      <c r="C90" t="s">
+        <v>111</v>
+      </c>
+      <c r="D90" t="s">
+        <v>147</v>
+      </c>
+      <c r="E90">
+        <v>11</v>
+      </c>
+      <c r="F90">
+        <v>102.1</v>
+      </c>
+      <c r="G90" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="1">
+        <v>93</v>
+      </c>
+      <c r="B91" t="s">
+        <v>18</v>
+      </c>
+      <c r="C91" t="s">
+        <v>112</v>
+      </c>
+      <c r="D91" t="s">
+        <v>147</v>
+      </c>
+      <c r="E91">
+        <v>12</v>
+      </c>
+      <c r="F91">
+        <v>110.6</v>
+      </c>
+      <c r="G91" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="1">
+        <v>94</v>
+      </c>
+      <c r="B92" t="s">
+        <v>18</v>
+      </c>
+      <c r="C92" t="s">
         <v>113</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D92" t="s">
+        <v>147</v>
+      </c>
+      <c r="E92">
+        <v>4</v>
+      </c>
+      <c r="F92">
+        <v>98.2</v>
+      </c>
+      <c r="G92" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="1">
+        <v>95</v>
+      </c>
+      <c r="B93" t="s">
+        <v>18</v>
+      </c>
+      <c r="C93" t="s">
+        <v>114</v>
+      </c>
+      <c r="D93" t="s">
+        <v>147</v>
+      </c>
+      <c r="E93">
+        <v>4</v>
+      </c>
+      <c r="F93">
+        <v>104.1</v>
+      </c>
+      <c r="G93" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="1">
+        <v>96</v>
+      </c>
+      <c r="B94" t="s">
+        <v>18</v>
+      </c>
+      <c r="C94" t="s">
+        <v>115</v>
+      </c>
+      <c r="D94" t="s">
+        <v>147</v>
+      </c>
+      <c r="E94">
+        <v>7</v>
+      </c>
+      <c r="F94">
+        <v>85</v>
+      </c>
+      <c r="G94" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="1">
+        <v>97</v>
+      </c>
+      <c r="B95" t="s">
+        <v>19</v>
+      </c>
+      <c r="C95" t="s">
+        <v>116</v>
+      </c>
+      <c r="D95" t="s">
+        <v>146</v>
+      </c>
+      <c r="E95">
+        <v>7</v>
+      </c>
+      <c r="F95">
+        <v>117.8</v>
+      </c>
+      <c r="G95" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="1">
+        <v>98</v>
+      </c>
+      <c r="B96" t="s">
+        <v>19</v>
+      </c>
+      <c r="C96" t="s">
+        <v>117</v>
+      </c>
+      <c r="D96" t="s">
+        <v>146</v>
+      </c>
+      <c r="E96">
+        <v>7</v>
+      </c>
+      <c r="F96">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="G96" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="1">
+        <v>99</v>
+      </c>
+      <c r="B97" t="s">
+        <v>19</v>
+      </c>
+      <c r="C97" t="s">
+        <v>118</v>
+      </c>
+      <c r="D97" t="s">
+        <v>146</v>
+      </c>
+      <c r="E97">
+        <v>6</v>
+      </c>
+      <c r="F97">
+        <v>83.09999999999999</v>
+      </c>
+      <c r="G97" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="1">
+        <v>100</v>
+      </c>
+      <c r="B98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C98" t="s">
+        <v>119</v>
+      </c>
+      <c r="D98" t="s">
+        <v>146</v>
+      </c>
+      <c r="E98">
+        <v>9</v>
+      </c>
+      <c r="F98">
+        <v>82</v>
+      </c>
+      <c r="G98" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="1">
+        <v>101</v>
+      </c>
+      <c r="B99" t="s">
+        <v>19</v>
+      </c>
+      <c r="C99" t="s">
+        <v>120</v>
+      </c>
+      <c r="D99" t="s">
+        <v>146</v>
+      </c>
+      <c r="E99">
+        <v>4</v>
+      </c>
+      <c r="F99">
+        <v>115.1</v>
+      </c>
+      <c r="G99" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="1">
+        <v>102</v>
+      </c>
+      <c r="B100" t="s">
+        <v>19</v>
+      </c>
+      <c r="C100" t="s">
+        <v>121</v>
+      </c>
+      <c r="D100" t="s">
+        <v>146</v>
+      </c>
+      <c r="E100">
+        <v>6</v>
+      </c>
+      <c r="F100">
+        <v>98.2</v>
+      </c>
+      <c r="G100" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="1">
+        <v>103</v>
+      </c>
+      <c r="B101" t="s">
+        <v>19</v>
+      </c>
+      <c r="C101" t="s">
+        <v>122</v>
+      </c>
+      <c r="D101" t="s">
+        <v>146</v>
+      </c>
+      <c r="E101">
+        <v>12</v>
+      </c>
+      <c r="F101">
+        <v>56</v>
+      </c>
+      <c r="G101" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="1">
+        <v>104</v>
+      </c>
+      <c r="B102" t="s">
+        <v>19</v>
+      </c>
+      <c r="C102" t="s">
+        <v>123</v>
+      </c>
+      <c r="D102" t="s">
+        <v>147</v>
+      </c>
+      <c r="E102">
         <v>10</v>
       </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1">
+      <c r="F102">
+        <v>109.6</v>
+      </c>
+      <c r="G102" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="1">
+        <v>105</v>
+      </c>
+      <c r="B103" t="s">
+        <v>20</v>
+      </c>
+      <c r="C103" t="s">
+        <v>124</v>
+      </c>
+      <c r="D103" t="s">
+        <v>150</v>
+      </c>
+      <c r="E103">
+        <v>10</v>
+      </c>
+      <c r="F103">
+        <v>133.5</v>
+      </c>
+      <c r="G103" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="1">
+        <v>106</v>
+      </c>
+      <c r="B104" t="s">
+        <v>20</v>
+      </c>
+      <c r="C104" t="s">
+        <v>125</v>
+      </c>
+      <c r="D104" t="s">
+        <v>147</v>
+      </c>
+      <c r="E104">
+        <v>11</v>
+      </c>
+      <c r="F104">
+        <v>84.40000000000001</v>
+      </c>
+      <c r="G104" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="1">
+        <v>107</v>
+      </c>
+      <c r="B105" t="s">
+        <v>20</v>
+      </c>
+      <c r="C105" t="s">
+        <v>126</v>
+      </c>
+      <c r="D105" t="s">
+        <v>147</v>
+      </c>
+      <c r="E105">
+        <v>11</v>
+      </c>
+      <c r="F105">
+        <v>92.09999999999999</v>
+      </c>
+      <c r="G105" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="1">
+        <v>108</v>
+      </c>
+      <c r="B106" t="s">
+        <v>20</v>
+      </c>
+      <c r="C106" t="s">
+        <v>127</v>
+      </c>
+      <c r="D106" t="s">
+        <v>147</v>
+      </c>
+      <c r="E106">
+        <v>10</v>
+      </c>
+      <c r="F106">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="G106" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="1">
+        <v>109</v>
+      </c>
+      <c r="B107" t="s">
+        <v>20</v>
+      </c>
+      <c r="C107" t="s">
+        <v>128</v>
+      </c>
+      <c r="D107" t="s">
+        <v>148</v>
+      </c>
+      <c r="E107">
+        <v>7</v>
+      </c>
+      <c r="F107">
+        <v>94.7</v>
+      </c>
+      <c r="G107" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="1">
+        <v>110</v>
+      </c>
+      <c r="B108" t="s">
+        <v>20</v>
+      </c>
+      <c r="C108" t="s">
+        <v>129</v>
+      </c>
+      <c r="D108" t="s">
+        <v>148</v>
+      </c>
+      <c r="E108">
+        <v>7</v>
+      </c>
+      <c r="F108">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="G108" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="1">
+        <v>111</v>
+      </c>
+      <c r="B109" t="s">
+        <v>20</v>
+      </c>
+      <c r="C109" t="s">
+        <v>130</v>
+      </c>
+      <c r="D109" t="s">
+        <v>148</v>
+      </c>
+      <c r="E109">
+        <v>11</v>
+      </c>
+      <c r="F109">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="G109" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="1">
+        <v>112</v>
+      </c>
+      <c r="B110" t="s">
+        <v>20</v>
+      </c>
+      <c r="C110" t="s">
+        <v>131</v>
+      </c>
+      <c r="D110" t="s">
+        <v>148</v>
+      </c>
+      <c r="E110">
+        <v>9</v>
+      </c>
+      <c r="F110">
+        <v>92.7</v>
+      </c>
+      <c r="G110" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="1">
+        <v>113</v>
+      </c>
+      <c r="B111" t="s">
+        <v>21</v>
+      </c>
+      <c r="C111" t="s">
+        <v>132</v>
+      </c>
+      <c r="D111" t="s">
+        <v>149</v>
+      </c>
+      <c r="E111">
+        <v>9</v>
+      </c>
+      <c r="F111">
+        <v>281</v>
+      </c>
+      <c r="G111" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="1">
         <v>115</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B112" t="s">
+        <v>21</v>
+      </c>
+      <c r="C112" t="s">
+        <v>133</v>
+      </c>
+      <c r="D112" t="s">
+        <v>149</v>
+      </c>
+      <c r="E112">
+        <v>7</v>
+      </c>
+      <c r="F112">
+        <v>285.5</v>
+      </c>
+      <c r="G112" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="1">
+        <v>117</v>
+      </c>
+      <c r="B113" t="s">
+        <v>21</v>
+      </c>
+      <c r="C113" t="s">
+        <v>134</v>
+      </c>
+      <c r="D113" t="s">
+        <v>149</v>
+      </c>
+      <c r="E113">
+        <v>11</v>
+      </c>
+      <c r="F113">
+        <v>280</v>
+      </c>
+      <c r="G113" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="1">
+        <v>118</v>
+      </c>
+      <c r="B114" t="s">
+        <v>21</v>
+      </c>
+      <c r="C114" t="s">
+        <v>135</v>
+      </c>
+      <c r="D114" t="s">
+        <v>149</v>
+      </c>
+      <c r="E114">
+        <v>12</v>
+      </c>
+      <c r="F114">
+        <v>284.1</v>
+      </c>
+      <c r="G114" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="1">
+        <v>119</v>
+      </c>
+      <c r="B115" t="s">
+        <v>21</v>
+      </c>
+      <c r="C115" t="s">
+        <v>136</v>
+      </c>
+      <c r="D115" t="s">
+        <v>149</v>
+      </c>
+      <c r="E115">
+        <v>9</v>
+      </c>
+      <c r="F115">
+        <v>278.1</v>
+      </c>
+      <c r="G115" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="1">
+        <v>120</v>
+      </c>
+      <c r="B116" t="s">
+        <v>21</v>
+      </c>
+      <c r="C116" t="s">
+        <v>137</v>
+      </c>
+      <c r="D116" t="s">
+        <v>149</v>
+      </c>
+      <c r="E116">
         <v>10</v>
       </c>
-      <c r="C18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1">
+      <c r="F116">
+        <v>275.9</v>
+      </c>
+      <c r="G116" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="1">
+        <v>121</v>
+      </c>
+      <c r="B117" t="s">
+        <v>22</v>
+      </c>
+      <c r="C117" t="s">
+        <v>138</v>
+      </c>
+      <c r="D117" t="s">
+        <v>147</v>
+      </c>
+      <c r="E117">
+        <v>7</v>
+      </c>
+      <c r="F117">
+        <v>100.4</v>
+      </c>
+      <c r="G117" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="1">
         <v>122</v>
       </c>
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" t="s">
-        <v>39</v>
+      <c r="B118" t="s">
+        <v>22</v>
+      </c>
+      <c r="C118" t="s">
+        <v>139</v>
+      </c>
+      <c r="D118" t="s">
+        <v>146</v>
+      </c>
+      <c r="E118">
+        <v>7</v>
+      </c>
+      <c r="F118">
+        <v>213.6</v>
+      </c>
+      <c r="G118" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="1">
+        <v>123</v>
+      </c>
+      <c r="B119" t="s">
+        <v>22</v>
+      </c>
+      <c r="C119" t="s">
+        <v>140</v>
+      </c>
+      <c r="D119" t="s">
+        <v>147</v>
+      </c>
+      <c r="E119">
+        <v>10</v>
+      </c>
+      <c r="F119">
+        <v>104.7</v>
+      </c>
+      <c r="G119" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="1">
+        <v>124</v>
+      </c>
+      <c r="B120" t="s">
+        <v>22</v>
+      </c>
+      <c r="C120" t="s">
+        <v>141</v>
+      </c>
+      <c r="D120" t="s">
+        <v>147</v>
+      </c>
+      <c r="E120">
+        <v>6</v>
+      </c>
+      <c r="F120">
+        <v>85.2</v>
+      </c>
+      <c r="G120" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="1">
+        <v>125</v>
+      </c>
+      <c r="B121" t="s">
+        <v>22</v>
+      </c>
+      <c r="C121" t="s">
+        <v>142</v>
+      </c>
+      <c r="D121" t="s">
+        <v>147</v>
+      </c>
+      <c r="E121">
+        <v>6</v>
+      </c>
+      <c r="F121">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="G121" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="1">
+        <v>126</v>
+      </c>
+      <c r="B122" t="s">
+        <v>22</v>
+      </c>
+      <c r="C122" t="s">
+        <v>143</v>
+      </c>
+      <c r="D122" t="s">
+        <v>147</v>
+      </c>
+      <c r="E122">
+        <v>6</v>
+      </c>
+      <c r="F122">
+        <v>100.1</v>
+      </c>
+      <c r="G122" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="1">
+        <v>127</v>
+      </c>
+      <c r="B123" t="s">
+        <v>22</v>
+      </c>
+      <c r="C123" t="s">
+        <v>144</v>
+      </c>
+      <c r="D123" t="s">
+        <v>149</v>
+      </c>
+      <c r="E123">
+        <v>8</v>
+      </c>
+      <c r="F123">
+        <v>270.6</v>
+      </c>
+      <c r="G123" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="1">
+        <v>128</v>
+      </c>
+      <c r="B124" t="s">
+        <v>22</v>
+      </c>
+      <c r="C124" t="s">
+        <v>145</v>
+      </c>
+      <c r="D124" t="s">
+        <v>149</v>
+      </c>
+      <c r="E124">
+        <v>6</v>
+      </c>
+      <c r="F124">
+        <v>279.5</v>
+      </c>
+      <c r="G124" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
